--- a/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ECF30B-B683-4DE9-9EE4-6C5AE904597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8782BD59-DAC5-4712-BB91-27E285679CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{940B6D0E-49F2-44F8-AB4D-69BD7D37D681}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC8896D4-EF33-44E4-9D31-A0B3BD9EFA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="124">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -230,181 +230,187 @@
     <t>4,78%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99FCD4-FB86-4477-86D8-01B4FCF932DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A92B50-6AED-4D22-A722-36905BA25547}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1483,7 +1489,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1534,7 +1540,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1567,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103BFEBF-6D17-44CC-BAD4-7FAEAA08395C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128ACDDA-25BA-45EB-A63E-5D9E0B873107}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F1BEDA-694E-4663-ACDF-0B391843C15A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A2CFC-9ACD-4BE4-BB9D-71F85B24850A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3069,7 +3075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B29C774-4CD3-4B76-A1E4-9DA7E5842EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25C9AB-2CDF-4A48-B8B0-3998C0FEE88D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3536,7 +3542,7 @@
         <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>99</v>
@@ -3590,7 +3596,7 @@
         <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,10 +3667,10 @@
         <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3673,13 +3679,13 @@
         <v>78608</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -3688,13 +3694,13 @@
         <v>151775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3715,13 @@
         <v>3260439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>5210</v>
@@ -3724,13 +3730,13 @@
         <v>3674452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>8477</v>
@@ -3739,13 +3745,13 @@
         <v>6934891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8782BD59-DAC5-4712-BB91-27E285679CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FCACD6-25E2-4984-B44F-F64E8F33AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC8896D4-EF33-44E4-9D31-A0B3BD9EFA4C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED88D1F2-37A6-4E94-B67A-16059F6F723F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -191,7 +191,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Población con retrasos en pagos no resueltos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A92B50-6AED-4D22-A722-36905BA25547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434F28EB-FEDC-458A-934F-366E99229451}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1149,7 +1149,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1200,7 +1200,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1459,7 +1459,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1510,7 +1510,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1573,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128ACDDA-25BA-45EB-A63E-5D9E0B873107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884B22C7-752C-4FB0-9594-978B892DCEC4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2324,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A2CFC-9ACD-4BE4-BB9D-71F85B24850A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF1C71-BE39-4076-8032-559821AA7F12}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3075,7 +3075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25C9AB-2CDF-4A48-B8B0-3998C0FEE88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17EF71D-51A2-491F-A275-CF88DB0C6CAA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FCACD6-25E2-4984-B44F-F64E8F33AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB237AE4-CAF2-4D43-95CC-A36B0C339B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED88D1F2-37A6-4E94-B67A-16059F6F723F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D45BB7B-D5EE-4734-B89D-169AB781D66C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="132">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Primarios</t>
   </si>
   <si>
+    <t>No recogida en edición</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -92,39 +110,33 @@
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
     <t>0,12%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
@@ -134,43 +146,43 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>99,97%</t>
   </si>
   <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>99,97%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
+    <t>99,9%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>99,9%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -182,34 +194,31 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
     <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>99,95%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>99,95%</t>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -218,34 +227,34 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -254,25 +263,25 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>96,3%</t>
+    <t>96,34%</t>
   </si>
   <si>
     <t>95,27%</t>
@@ -281,136 +290,151 @@
     <t>97,23%</t>
   </si>
   <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>97,86%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>98,21%</t>
+    <t>98,23%</t>
   </si>
 </sst>
 </file>
@@ -822,8 +846,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434F28EB-FEDC-458A-934F-366E99229451}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A84039-EC20-4BE6-B4C6-3CB09D7C3ED4}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -940,10 +964,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1031723</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -955,34 +979,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1315113</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2346836</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -991,10 +1015,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1031723</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1006,159 +1030,159 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1315113</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2346836</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1031723</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1031723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>1291</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>1315113</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>2329</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>2346836</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>1554</v>
@@ -1167,13 +1191,13 @@
         <v>1587673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>3203</v>
@@ -1182,174 +1206,174 @@
         <v>3281086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>1554</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1587673</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3203</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>3281086</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>527</v>
+        <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>551408</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>452</v>
+        <v>1554</v>
       </c>
       <c r="I11" s="7">
-        <v>476412</v>
+        <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>979</v>
+        <v>3203</v>
       </c>
       <c r="N11" s="7">
-        <v>1027820</v>
+        <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>527</v>
@@ -1358,13 +1382,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1373,13 +1397,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1388,21 +1412,19 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1411,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1426,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1441,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>34</v>
@@ -1453,52 +1475,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3214</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
-        <v>3297</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3379198</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>6511</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,74 +1529,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>527</v>
+      </c>
+      <c r="D15" s="7">
+        <v>551408</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>452</v>
+      </c>
+      <c r="I15" s="7">
+        <v>476412</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>979</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1027820</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>3214</v>
       </c>
-      <c r="D15" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D16" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>3297</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>3379198</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
         <v>6511</v>
       </c>
-      <c r="N15" s="7">
-        <v>6655741</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="N16" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884B22C7-752C-4FB0-9594-978B892DCEC4}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08057D-9E48-41B2-9AFB-9BDFA0FD3905}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1590,7 +1818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1691,49 +1919,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>974643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1337796</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2312440</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,159 +1970,159 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>908</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>974643</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1337796</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>2155</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2312440</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>908</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>974643</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>1247</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>1337796</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>2155</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>2312440</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1856</v>
@@ -1903,13 +2131,13 @@
         <v>1963957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>1635</v>
@@ -1918,13 +2146,13 @@
         <v>1757803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>3491</v>
@@ -1933,72 +2161,70 @@
         <v>3721760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1856</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>1963957</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>1635</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1757803</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3491</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>3721760</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2007,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>44</v>
@@ -2022,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2037,70 +2263,72 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>438</v>
+        <v>1856</v>
       </c>
       <c r="D11" s="7">
-        <v>481181</v>
+        <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>412</v>
+        <v>1635</v>
       </c>
       <c r="I11" s="7">
-        <v>458631</v>
+        <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>850</v>
+        <v>3491</v>
       </c>
       <c r="N11" s="7">
-        <v>939812</v>
+        <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>438</v>
@@ -2109,13 +2337,13 @@
         <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -2124,13 +2352,13 @@
         <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>850</v>
@@ -2139,21 +2367,19 @@
         <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2162,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2177,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2192,64 +2418,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3202</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3419782</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>3294</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3554230</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>6496</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6974012</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,74 +2484,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>438</v>
+      </c>
+      <c r="D15" s="7">
+        <v>481181</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>412</v>
+      </c>
+      <c r="I15" s="7">
+        <v>458631</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>850</v>
+      </c>
+      <c r="N15" s="7">
+        <v>939812</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>3202</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>3419782</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>3294</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>3554230</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
         <v>6496</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>6974012</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF1C71-BE39-4076-8032-559821AA7F12}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E674BD-6D65-4299-85BA-39C531FE323A}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2341,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2442,49 +2874,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>754347</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>994660</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1749007</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,159 +2925,159 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>754347</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H5" s="7">
-        <v>892</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>994660</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M5" s="7">
-        <v>1654</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1749007</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>762</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>754347</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>892</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>994660</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>1654</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>1749007</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1952</v>
@@ -2654,13 +3086,13 @@
         <v>2076385</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>1908</v>
@@ -2669,13 +3101,13 @@
         <v>1988300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>3860</v>
@@ -2684,72 +3116,70 @@
         <v>4064685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2758,100 +3188,102 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>501</v>
+        <v>1952</v>
       </c>
       <c r="D11" s="7">
-        <v>546886</v>
+        <v>2076385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>526</v>
+        <v>1908</v>
       </c>
       <c r="I11" s="7">
-        <v>549140</v>
+        <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1027</v>
+        <v>3860</v>
       </c>
       <c r="N11" s="7">
-        <v>1096026</v>
+        <v>4064685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>501</v>
@@ -2860,13 +3292,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -2875,13 +3307,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -2890,21 +3322,19 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2913,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2928,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2943,64 +3373,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3215</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3377618</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>3326</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3532100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7">
-        <v>6541</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>6909718</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,74 +3439,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>501</v>
+      </c>
+      <c r="D15" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>526</v>
+      </c>
+      <c r="I15" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>3215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>3377618</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>3326</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>3532100</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
         <v>6541</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>6909718</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3215</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3377618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3532100</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6541</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6909718</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17EF71D-51A2-491F-A275-CF88DB0C6CAA}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E3308-E58C-4602-ACDA-9AD481D655F4}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3092,7 +3728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3193,49 +3829,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25677</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="7">
-        <v>34</v>
-      </c>
-      <c r="I4" s="7">
-        <v>24763</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>50439</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,514 +3880,512 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>658</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>511119</v>
+        <v>25677</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="7">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7">
+        <v>24763</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="7">
+        <v>62</v>
+      </c>
+      <c r="N5" s="7">
+        <v>50439</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1384</v>
-      </c>
-      <c r="I5" s="7">
-        <v>802383</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2042</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1313502</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>663</v>
+      </c>
+      <c r="D6" s="7">
+        <v>515957</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1393</v>
+      </c>
+      <c r="I6" s="7">
+        <v>811190</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2056</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1327147</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>686</v>
-      </c>
-      <c r="D6" s="7">
-        <v>536796</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1418</v>
-      </c>
-      <c r="I6" s="7">
-        <v>827146</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1363941</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>691</v>
+      </c>
+      <c r="D7" s="7">
+        <v>541634</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1427</v>
+      </c>
+      <c r="I7" s="7">
+        <v>835953</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2118</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1377586</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7">
-        <v>46096</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="7">
-        <v>56</v>
-      </c>
-      <c r="I7" s="7">
-        <v>48113</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M7" s="7">
-        <v>94</v>
-      </c>
-      <c r="N7" s="7">
-        <v>94209</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1934</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2082723</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2839</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2173121</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4773</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4255844</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1972</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>2128819</v>
+        <v>46096</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="H9" s="7">
-        <v>2895</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>2221234</v>
+        <v>48113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="M9" s="7">
-        <v>4867</v>
+        <v>94</v>
       </c>
       <c r="N9" s="7">
-        <v>4350053</v>
+        <v>94209</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1954</v>
       </c>
       <c r="D10" s="7">
-        <v>1394</v>
+        <v>2115926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>2865</v>
       </c>
       <c r="I10" s="7">
-        <v>5732</v>
+        <v>2201407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4819</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4317334</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7127</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2162022</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2921</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2249520</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4913</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4411543</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>675</v>
-      </c>
-      <c r="D11" s="7">
-        <v>666597</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>987</v>
-      </c>
-      <c r="I11" s="7">
-        <v>698948</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1394</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5732</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="7">
-        <v>1662</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1365544</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7127</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>677</v>
-      </c>
-      <c r="D12" s="7">
-        <v>667991</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>993</v>
-      </c>
-      <c r="I12" s="7">
-        <v>704680</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1670</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1372671</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>68</v>
-      </c>
-      <c r="D13" s="7">
-        <v>73167</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="7">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7">
-        <v>78608</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="7">
-        <v>164</v>
-      </c>
-      <c r="N13" s="7">
-        <v>151775</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>3267</v>
+        <v>679</v>
       </c>
       <c r="D14" s="7">
-        <v>3260439</v>
+        <v>671645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>5210</v>
+        <v>998</v>
       </c>
       <c r="I14" s="7">
-        <v>3674452</v>
+        <v>708154</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
-        <v>8477</v>
+        <v>1677</v>
       </c>
       <c r="N14" s="7">
-        <v>6934891</v>
+        <v>1379799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,66 +4394,272 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3335</v>
+        <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>3333606</v>
+        <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>5306</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>3753060</v>
+        <v>713886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>8641</v>
+        <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>7086666</v>
+        <v>1386926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>68</v>
+      </c>
+      <c r="D17" s="7">
+        <v>73167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="7">
+        <v>96</v>
+      </c>
+      <c r="I17" s="7">
+        <v>78608</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="7">
+        <v>164</v>
+      </c>
+      <c r="N17" s="7">
+        <v>151775</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3296</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3303528</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5256</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3720752</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8552</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7024280</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3364</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3376695</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5352</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3799360</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8716</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7176055</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB237AE4-CAF2-4D43-95CC-A36B0C339B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BD0D3A-CEE1-4A94-A21E-3D27B3C97532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D45BB7B-D5EE-4734-B89D-169AB781D66C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A79B1770-49E2-41D6-8E5B-234748D83542}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="128">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -236,205 +236,193 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A84039-EC20-4BE6-B4C6-3CB09D7C3ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64AAE3-A8B1-4AEB-9B3C-F2E26D9DE507}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -997,7 +985,7 @@
         <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1150,7 +1138,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1173,7 +1161,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1326,7 +1314,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1585,7 +1573,7 @@
         <v>3214</v>
       </c>
       <c r="D16" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1600,7 +1588,7 @@
         <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1615,7 +1603,7 @@
         <v>6511</v>
       </c>
       <c r="N16" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1738,7 +1726,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1753,7 +1741,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1768,7 +1756,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -1801,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08057D-9E48-41B2-9AFB-9BDFA0FD3905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E73A8B-2634-468B-831C-604391072090}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1937,7 +1925,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2090,7 +2078,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2364,7 +2352,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -2517,7 +2505,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2756,7 +2744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E674BD-6D65-4299-85BA-39C531FE323A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C3065-735C-44EB-BA5C-F6AF95475487}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,7 +3307,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -3472,7 +3460,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3711,7 +3699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E3308-E58C-4602-ACDA-9AD481D655F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B68D91-F8BA-4E65-9AC6-73BA27F817E6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3871,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>25677</v>
+        <v>23765</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>65</v>
@@ -3898,7 +3886,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>24763</v>
+        <v>22591</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>68</v>
@@ -3913,7 +3901,7 @@
         <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>50439</v>
+        <v>46355</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>71</v>
@@ -3934,7 +3922,7 @@
         <v>663</v>
       </c>
       <c r="D6" s="7">
-        <v>515957</v>
+        <v>491173</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>74</v>
@@ -3949,7 +3937,7 @@
         <v>1393</v>
       </c>
       <c r="I6" s="7">
-        <v>811190</v>
+        <v>732917</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>77</v>
@@ -3964,7 +3952,7 @@
         <v>2056</v>
       </c>
       <c r="N6" s="7">
-        <v>1327147</v>
+        <v>1224091</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>80</v>
@@ -3985,7 +3973,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4000,7 +3988,7 @@
         <v>1427</v>
       </c>
       <c r="I7" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4015,7 +4003,7 @@
         <v>2118</v>
       </c>
       <c r="N7" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4089,7 +4077,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>46096</v>
+        <v>46018</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>85</v>
@@ -4104,25 +4092,25 @@
         <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>48113</v>
+        <v>46236</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
       </c>
       <c r="N9" s="7">
-        <v>94209</v>
+        <v>92254</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>91</v>
@@ -4140,7 +4128,7 @@
         <v>1954</v>
       </c>
       <c r="D10" s="7">
-        <v>2115926</v>
+        <v>2244309</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>93</v>
@@ -4155,25 +4143,25 @@
         <v>2865</v>
       </c>
       <c r="I10" s="7">
-        <v>2201407</v>
+        <v>2191587</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>4819</v>
       </c>
       <c r="N10" s="7">
-        <v>4317334</v>
+        <v>4435896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>99</v>
@@ -4191,7 +4179,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4206,7 +4194,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4221,7 +4209,7 @@
         <v>4913</v>
       </c>
       <c r="N11" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4295,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1394</v>
+        <v>1370</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -4310,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>5732</v>
+        <v>5372</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>103</v>
@@ -4325,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>7127</v>
+        <v>6743</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>105</v>
@@ -4346,7 +4334,7 @@
         <v>679</v>
       </c>
       <c r="D14" s="7">
-        <v>671645</v>
+        <v>645253</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>39</v>
@@ -4361,7 +4349,7 @@
         <v>998</v>
       </c>
       <c r="I14" s="7">
-        <v>708154</v>
+        <v>655091</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>108</v>
@@ -4376,7 +4364,7 @@
         <v>1677</v>
       </c>
       <c r="N14" s="7">
-        <v>1379799</v>
+        <v>1300343</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>111</v>
@@ -4397,7 +4385,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4412,7 +4400,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4427,7 +4415,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4501,7 +4489,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>73167</v>
+        <v>71153</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -4516,31 +4504,31 @@
         <v>96</v>
       </c>
       <c r="I17" s="7">
-        <v>78608</v>
+        <v>74199</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>151775</v>
+        <v>145352</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,46 +4540,46 @@
         <v>3296</v>
       </c>
       <c r="D18" s="7">
-        <v>3303528</v>
+        <v>3380736</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>5256</v>
       </c>
       <c r="I18" s="7">
-        <v>3720752</v>
+        <v>3579595</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>8552</v>
       </c>
       <c r="N18" s="7">
-        <v>7024280</v>
+        <v>6960331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4591,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4618,7 +4606,7 @@
         <v>5352</v>
       </c>
       <c r="I19" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4633,7 +4621,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
